--- a/peppol-commons/src/test/resources/codelists/PEPPOL Code Lists - Processes v3.xlsx
+++ b/peppol-commons/src/test/resources/codelists/PEPPOL Code Lists - Processes v3.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Process" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Profile code</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>Tender Submission V1</t>
+  </si>
+  <si>
+    <t>OIOUBL UtilityStatement V2.02</t>
+  </si>
+  <si>
+    <t>OIOUBL Reminder V2.02</t>
+  </si>
+  <si>
+    <t>oioubl-procid-ubl</t>
+  </si>
+  <si>
+    <t>Reference-Utility-1.0</t>
+  </si>
+  <si>
+    <t>Procurement-ReminderOnly-1.0</t>
+  </si>
+  <si>
+    <t>Process Scheme</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl</t>
   </si>
 </sst>
 </file>
@@ -248,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -288,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,341 +720,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A17"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="8"/>
+    <col min="3" max="3" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="F2" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="F4" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="F6" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="F8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="F11" s="4" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="b">
+      <c r="F17" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14"/>
+  <autoFilter ref="A1:G14"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D8 D3" twoDigitTextYear="1"/>
+    <ignoredError sqref="E8 E3" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>